--- a/experiments/dbscan-ajk/instructor-xl/0.04/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-xl/0.04/prediction.xlsx
@@ -468,351 +468,351 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -838,127 +838,127 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,211 +998,211 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78">
@@ -1228,17 +1228,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,11 +1248,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83">
@@ -1288,81 +1288,81 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
@@ -1378,57 +1378,57 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,81 +1448,81 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110">
@@ -1538,1027 +1538,1027 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,267 +2568,267 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>180</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>184</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>185</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,147 +2938,147 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3138,791 +3138,791 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>208</v>
+        <v>91</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>231</v>
+        <v>134</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>239</v>
+        <v>170</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="350">
@@ -3938,2221 +3938,2221 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>300</v>
+        <v>103</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>301</v>
+        <v>192</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>342</v>
+        <v>296</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>343</v>
+        <v>296</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>367</v>
+        <v>393</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>368</v>
+        <v>394</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>369</v>
+        <v>395</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>370</v>
+        <v>396</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>371</v>
+        <v>396</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>374</v>
+        <v>399</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>376</v>
+        <v>401</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>392</v>
+        <v>276</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>393</v>
+        <v>276</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>394</v>
+        <v>276</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>419</v>
+        <v>275</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>437</v>
+        <v>38</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>448</v>
+        <v>248</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>455</v>
+        <v>111</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>459</v>
+        <v>320</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>466</v>
+        <v>269</v>
       </c>
     </row>
     <row r="573">
